--- a/media/Levels/Stage02/RightWallMap.xlsx
+++ b/media/Levels/Stage02/RightWallMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1280492-44B9-4FBC-8D73-CA3E2F893902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AC0B7-0A7A-46E8-AAB5-3516D199EF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="984" windowWidth="15540" windowHeight="9888" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,25 +538,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -567,28 +567,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -611,22 +611,22 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -707,31 +707,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
